--- a/data/Book3.xlsx
+++ b/data/Book3.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>model</t>
   </si>
   <si>
     <t>input</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>M025-07497</t>
@@ -66,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,39 +77,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfbe3d6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd9f2d0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,16 +96,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -139,37 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,28 +149,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -473,202 +426,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
